--- a/NoteBook/task and schedule plans and actual/TASK_Layne_Ciclo2.xlsx
+++ b/NoteBook/task and schedule plans and actual/TASK_Layne_Ciclo2.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabiánEduardo\Documents\GitHub\tsp\NoteBook\task and schedule plans and actual\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="19980" windowHeight="7815"/>
+    <workbookView xWindow="140" yWindow="2460" windowWidth="27060" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -295,10 +295,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -307,57 +307,57 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -365,37 +365,37 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -465,65 +465,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,7 +585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,7 +620,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -831,229 +831,228 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="7.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" ht="18">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="33"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="40">
         <v>41748</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:13" ht="16" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="34">
         <v>2</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:13" ht="16" thickBot="1">
+      <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="25" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="27"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1">
+      <c r="A8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1">
       <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="21" t="s">
         <v>30</v>
       </c>
@@ -1138,8 +1137,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:13" ht="29" thickBot="1">
+      <c r="A16" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5"/>
@@ -1181,8 +1180,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+    <row r="17" spans="1:13" ht="15" thickBot="1">
+      <c r="A17" s="36"/>
       <c r="B17" s="5"/>
       <c r="C17" s="16" t="s">
         <v>28</v>
@@ -1222,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>49</v>
       </c>
@@ -1265,8 +1264,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:13" ht="15" thickBot="1">
+      <c r="A19" s="35" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="5"/>
@@ -1308,8 +1307,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+    <row r="20" spans="1:13" ht="15" thickBot="1">
+      <c r="A20" s="36"/>
       <c r="B20" s="5"/>
       <c r="C20" s="17" t="s">
         <v>39</v>
@@ -1345,8 +1344,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+    <row r="21" spans="1:13" ht="29" thickBot="1">
+      <c r="A21" s="36"/>
       <c r="B21" s="5"/>
       <c r="C21" s="17" t="s">
         <v>40</v>
@@ -1386,8 +1385,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:13" ht="15" thickBot="1">
+      <c r="A22" s="41"/>
       <c r="B22" s="5"/>
       <c r="C22" s="17" t="s">
         <v>44</v>
@@ -1427,8 +1426,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:13" ht="15" thickBot="1">
+      <c r="A23" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="5"/>
@@ -1470,8 +1469,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+    <row r="24" spans="1:13" ht="15" thickBot="1">
+      <c r="A24" s="36"/>
       <c r="B24" s="5"/>
       <c r="C24" s="18" t="s">
         <v>24</v>
@@ -1511,8 +1510,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:13" ht="15" thickBot="1">
+      <c r="A25" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="5"/>
@@ -1554,8 +1553,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
+    <row r="26" spans="1:13" ht="15" thickBot="1">
+      <c r="A26" s="36"/>
       <c r="B26" s="5"/>
       <c r="C26" s="18" t="s">
         <v>43</v>
@@ -1595,8 +1594,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
+    <row r="27" spans="1:13" ht="29" thickBot="1">
+      <c r="A27" s="36"/>
       <c r="B27" s="5"/>
       <c r="C27" s="18" t="s">
         <v>40</v>
@@ -1636,8 +1635,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:13" ht="15" thickBot="1">
+      <c r="A28" s="35" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="5"/>
@@ -1668,12 +1667,19 @@
         <f t="shared" si="2"/>
         <v>76.999999999999986</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
+      <c r="K28" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="L28" s="7">
+        <f>K28+L27</f>
+        <v>26.62</v>
+      </c>
+      <c r="M28" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1">
+      <c r="A29" s="36"/>
       <c r="B29" s="9"/>
       <c r="C29" s="19" t="s">
         <v>46</v>
@@ -1702,12 +1708,19 @@
         <f t="shared" si="2"/>
         <v>78.799999999999983</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="K29" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="L29" s="7">
+        <f>K29+L28</f>
+        <v>27.02</v>
+      </c>
+      <c r="M29" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1">
+      <c r="A30" s="36"/>
       <c r="B30" s="9"/>
       <c r="C30" s="19" t="s">
         <v>53</v>
@@ -1736,12 +1749,19 @@
         <f t="shared" si="2"/>
         <v>85.899999999999977</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="K30" s="7">
+        <v>4</v>
+      </c>
+      <c r="L30" s="7">
+        <f>K30+L29</f>
+        <v>31.02</v>
+      </c>
+      <c r="M30" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1">
+      <c r="A31" s="36"/>
       <c r="B31" s="9"/>
       <c r="C31" s="19" t="s">
         <v>25</v>
@@ -1770,12 +1790,19 @@
         <f t="shared" si="2"/>
         <v>89.399999999999977</v>
       </c>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="K31" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="L31" s="7">
+        <f>K31+L30</f>
+        <v>31.22</v>
+      </c>
+      <c r="M31" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="29" thickBot="1">
+      <c r="A32" s="36"/>
       <c r="B32" s="9"/>
       <c r="C32" s="19" t="s">
         <v>40</v>
@@ -1804,12 +1831,19 @@
         <f t="shared" si="2"/>
         <v>96.499999999999972</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
+      <c r="K32" s="7">
+        <v>2</v>
+      </c>
+      <c r="L32" s="7">
+        <f>K32+L31</f>
+        <v>33.22</v>
+      </c>
+      <c r="M32" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1">
+      <c r="A33" s="41"/>
       <c r="B33" s="9"/>
       <c r="C33" s="19" t="s">
         <v>47</v>
@@ -1834,11 +1868,18 @@
         <f t="shared" si="2"/>
         <v>99.999999999999972</v>
       </c>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7">
+        <f>K33+L32</f>
+        <v>34.22</v>
+      </c>
+      <c r="M33" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" thickBot="1">
       <c r="D34" s="6">
         <f>SUM(D14:D33)</f>
         <v>28.3</v>
@@ -1850,6 +1891,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="J8:J13"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="I8:I13"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="B8:B13"/>
@@ -1860,28 +1920,13 @@
     <mergeCell ref="M8:M13"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="G8:G13"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="J8:J13"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="I8:I13"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A19:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1891,9 +1936,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1903,8 +1953,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>